--- a/records/permanentRecord_Alice Brown.xlsx
+++ b/records/permanentRecord_Alice Brown.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="111">
   <si>
     <t>Date and Time</t>
   </si>
@@ -39,235 +39,313 @@
     <t>Level</t>
   </si>
   <si>
-    <t>2026-01-12 20:13:52</t>
-  </si>
-  <si>
-    <t>HeartRate</t>
+    <t>2026-01-12 13:36:58</t>
+  </si>
+  <si>
+    <t>Temperature</t>
   </si>
   <si>
     <t>AMBER</t>
   </si>
   <si>
-    <t>2026-01-12 20:13:56</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:13:57</t>
+    <t>2026-01-12 13:37:01</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:36</t>
+  </si>
+  <si>
+    <t>127/100</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:02</t>
+  </si>
+  <si>
+    <t>RespRate</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:03</t>
   </si>
   <si>
     <t>ECG</t>
   </si>
   <si>
-    <t>2026-01-12 20:13:58</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:13:59</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:01</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:13</t>
-  </si>
-  <si>
-    <t>117/87</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:02</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:03</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:05</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:06</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:08</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:09</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:10</t>
-  </si>
-  <si>
-    <t>RespRate</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:11</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:12</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:13</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:14</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:15</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:16</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:17</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:18</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:19</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:20</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:21</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:22</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:23</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:24</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:25</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:26</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:27</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:28</t>
+    <t>2026-01-12 13:37:04</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:05</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:06</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:07</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:08</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:09</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:10</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:11</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:12</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:13</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:14</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:15</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:16</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:17</t>
   </si>
   <si>
     <t>RED</t>
   </si>
   <si>
-    <t>2026-01-12 20:14:29</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:30</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:31</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:32</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:34</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:35</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:36</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:37</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:38</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:39</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:40</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:41</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:42</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:43</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:44</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:45</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:46</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:47</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:48</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:49</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:50</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:51</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:52</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:53</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:54</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:55</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:56</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:57</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:58</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14:59</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:15:00</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:14</t>
-  </si>
-  <si>
-    <t>115/85</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:15:01</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:15:02</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:15:03</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:15:04</t>
-  </si>
-  <si>
-    <t>2026-01-12 20:15:05</t>
+    <t>2026-01-12 13:37:18</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:19</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:20</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:21</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:22</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:23</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:24</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:25</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:26</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:27</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:28</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:29</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:30</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:31</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:32</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:33</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:34</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:35</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:36</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:37</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:38</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:39</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:40</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:41</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:42</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:43</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:44</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:45</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:46</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:48</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:49</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:50</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:51</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:52</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:53</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:54</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:55</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:56</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:57</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:58</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37:59</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:00</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:37</t>
+  </si>
+  <si>
+    <t>128/98</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:01</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:02</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:03</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:04</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:05</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:06</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:07</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:08</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:09</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:10</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:11</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:12</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:13</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:14</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:15</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:16</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:17</t>
+  </si>
+  <si>
+    <t>BloodPressure</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:18</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:19</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:20</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:21</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:22</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:23</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:24</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:25</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:26</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:27</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:28</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:29</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:30</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:31</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:32</t>
+  </si>
+  <si>
+    <t>2026-01-12 13:38:33</t>
   </si>
 </sst>
 </file>
@@ -337,36 +415,36 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>43.0</v>
+        <v>90.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>44.0</v>
+        <v>83.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -376,7 +454,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,7 +482,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>10</v>
@@ -418,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>10</v>
@@ -426,13 +504,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>10</v>
@@ -440,13 +518,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>10</v>
@@ -454,13 +532,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>10</v>
@@ -468,13 +546,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>42.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>10</v>
@@ -482,13 +560,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>10</v>
@@ -496,13 +574,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>10</v>
@@ -513,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>10</v>
@@ -524,13 +602,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>10</v>
@@ -538,13 +616,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>10</v>
@@ -552,13 +630,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>10</v>
@@ -572,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>10</v>
@@ -583,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>1.0</v>
@@ -600,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>10</v>
@@ -608,13 +686,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>43.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>10</v>
@@ -622,13 +700,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>10</v>
@@ -639,10 +717,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>11.0</v>
+        <v>39.0</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>10</v>
@@ -653,10 +731,10 @@
         <v>25</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>10</v>
@@ -664,13 +742,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="D21" t="s" s="0">
         <v>10</v>
@@ -681,10 +759,10 @@
         <v>27</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>11.0</v>
+        <v>39.0</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>10</v>
@@ -698,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="D23" t="s" s="0">
         <v>10</v>
@@ -709,10 +787,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>10</v>
@@ -720,13 +798,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="D25" t="s" s="0">
         <v>10</v>
@@ -734,13 +812,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>10</v>
@@ -748,13 +826,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>10</v>
@@ -762,13 +840,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="D28" t="s" s="0">
         <v>10</v>
@@ -776,27 +854,27 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>11.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>10</v>
@@ -804,13 +882,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>43.0</v>
+        <v>1.0</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>10</v>
@@ -818,13 +896,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="D32" t="s" s="0">
         <v>10</v>
@@ -832,13 +910,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D33" t="s" s="0">
         <v>10</v>
@@ -846,13 +924,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="D34" t="s" s="0">
         <v>10</v>
@@ -860,13 +938,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="D35" t="s" s="0">
         <v>10</v>
@@ -874,13 +952,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="D36" t="s" s="0">
         <v>10</v>
@@ -888,13 +966,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="D37" t="s" s="0">
         <v>10</v>
@@ -902,13 +980,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="D38" t="s" s="0">
         <v>10</v>
@@ -916,13 +994,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>44.0</v>
+        <v>1.0</v>
       </c>
       <c r="D39" t="s" s="0">
         <v>10</v>
@@ -930,13 +1008,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="D40" t="s" s="0">
         <v>10</v>
@@ -944,27 +1022,27 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>45.0</v>
+        <v>1.0</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="D42" t="s" s="0">
         <v>10</v>
@@ -972,13 +1050,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>45.0</v>
+        <v>21.0</v>
       </c>
       <c r="D43" t="s" s="0">
         <v>10</v>
@@ -986,13 +1064,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="D44" t="s" s="0">
         <v>10</v>
@@ -1000,13 +1078,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="D45" t="s" s="0">
         <v>10</v>
@@ -1014,13 +1092,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="D46" t="s" s="0">
         <v>10</v>
@@ -1028,13 +1106,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="D47" t="s" s="0">
         <v>10</v>
@@ -1042,13 +1120,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
       <c r="D48" t="s" s="0">
         <v>10</v>
@@ -1056,13 +1134,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>44.0</v>
+        <v>23.0</v>
       </c>
       <c r="D49" t="s" s="0">
         <v>10</v>
@@ -1070,16 +1148,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>1.0</v>
+        <v>39.0</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -1087,10 +1165,10 @@
         <v>46</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>45.0</v>
+        <v>22.0</v>
       </c>
       <c r="D51" t="s" s="0">
         <v>10</v>
@@ -1101,10 +1179,10 @@
         <v>46</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>-1.0</v>
+        <v>38.0</v>
       </c>
       <c r="D52" t="s" s="0">
         <v>10</v>
@@ -1115,10 +1193,10 @@
         <v>47</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>46.0</v>
+        <v>22.0</v>
       </c>
       <c r="D53" t="s" s="0">
         <v>10</v>
@@ -1126,13 +1204,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>46.0</v>
+        <v>38.0</v>
       </c>
       <c r="D54" t="s" s="0">
         <v>10</v>
@@ -1140,13 +1218,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>47.0</v>
+        <v>21.0</v>
       </c>
       <c r="D55" t="s" s="0">
         <v>10</v>
@@ -1154,13 +1232,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>11.0</v>
+        <v>38.0</v>
       </c>
       <c r="D56" t="s" s="0">
         <v>10</v>
@@ -1171,24 +1249,24 @@
         <v>49</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>-1.0</v>
+        <v>22.0</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>46.0</v>
+        <v>38.0</v>
       </c>
       <c r="D58" t="s" s="0">
         <v>10</v>
@@ -1199,10 +1277,10 @@
         <v>50</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="D59" t="s" s="0">
         <v>10</v>
@@ -1210,13 +1288,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>47.0</v>
+        <v>38.0</v>
       </c>
       <c r="D60" t="s" s="0">
         <v>10</v>
@@ -1227,10 +1305,10 @@
         <v>51</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="D61" t="s" s="0">
         <v>10</v>
@@ -1238,13 +1316,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>46.0</v>
+        <v>38.0</v>
       </c>
       <c r="D62" t="s" s="0">
         <v>10</v>
@@ -1255,10 +1333,10 @@
         <v>52</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="D63" t="s" s="0">
         <v>10</v>
@@ -1266,13 +1344,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="D64" t="s" s="0">
         <v>10</v>
@@ -1283,10 +1361,10 @@
         <v>53</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="D65" t="s" s="0">
         <v>10</v>
@@ -1297,10 +1375,10 @@
         <v>53</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="D66" t="s" s="0">
         <v>10</v>
@@ -1311,10 +1389,10 @@
         <v>54</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>44.0</v>
+        <v>23.0</v>
       </c>
       <c r="D67" t="s" s="0">
         <v>10</v>
@@ -1325,10 +1403,10 @@
         <v>54</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>11.0</v>
+        <v>39.0</v>
       </c>
       <c r="D68" t="s" s="0">
         <v>10</v>
@@ -1339,10 +1417,10 @@
         <v>55</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>43.0</v>
+        <v>22.0</v>
       </c>
       <c r="D69" t="s" s="0">
         <v>10</v>
@@ -1353,10 +1431,10 @@
         <v>55</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>11.0</v>
+        <v>39.0</v>
       </c>
       <c r="D70" t="s" s="0">
         <v>10</v>
@@ -1367,10 +1445,10 @@
         <v>56</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>42.0</v>
+        <v>23.0</v>
       </c>
       <c r="D71" t="s" s="0">
         <v>10</v>
@@ -1381,10 +1459,10 @@
         <v>56</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>10.0</v>
+        <v>39.0</v>
       </c>
       <c r="D72" t="s" s="0">
         <v>10</v>
@@ -1395,10 +1473,10 @@
         <v>57</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>43.0</v>
+        <v>22.0</v>
       </c>
       <c r="D73" t="s" s="0">
         <v>10</v>
@@ -1409,10 +1487,10 @@
         <v>57</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>10.0</v>
+        <v>39.0</v>
       </c>
       <c r="D74" t="s" s="0">
         <v>10</v>
@@ -1420,16 +1498,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>42.0</v>
+        <v>1.0</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -1437,10 +1515,10 @@
         <v>58</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="D76" t="s" s="0">
         <v>10</v>
@@ -1448,13 +1526,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="D77" t="s" s="0">
         <v>10</v>
@@ -1465,10 +1543,10 @@
         <v>59</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="D78" t="s" s="0">
         <v>10</v>
@@ -1476,13 +1554,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="D79" t="s" s="0">
         <v>10</v>
@@ -1490,13 +1568,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="D80" t="s" s="0">
         <v>10</v>
@@ -1507,10 +1585,10 @@
         <v>60</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="D81" t="s" s="0">
         <v>10</v>
@@ -1518,13 +1596,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="D82" t="s" s="0">
         <v>10</v>
@@ -1535,24 +1613,24 @@
         <v>61</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>-1.0</v>
+        <v>21.0</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="D84" t="s" s="0">
         <v>10</v>
@@ -1560,13 +1638,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="D85" t="s" s="0">
         <v>10</v>
@@ -1574,13 +1652,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>43.0</v>
+        <v>1.0</v>
       </c>
       <c r="D86" t="s" s="0">
         <v>10</v>
@@ -1588,13 +1666,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="D87" t="s" s="0">
         <v>10</v>
@@ -1602,13 +1680,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="D88" t="s" s="0">
         <v>10</v>
@@ -1616,10 +1694,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C89" t="n" s="0">
         <v>38.0</v>
@@ -1630,13 +1708,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="D90" t="s" s="0">
         <v>10</v>
@@ -1644,13 +1722,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>44.0</v>
+        <v>21.0</v>
       </c>
       <c r="D91" t="s" s="0">
         <v>10</v>
@@ -1658,13 +1736,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C92" t="n" s="0">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="D92" t="s" s="0">
         <v>10</v>
@@ -1672,13 +1750,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C93" t="n" s="0">
-        <v>45.0</v>
+        <v>1.0</v>
       </c>
       <c r="D93" t="s" s="0">
         <v>10</v>
@@ -1686,13 +1764,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C94" t="n" s="0">
-        <v>44.0</v>
+        <v>21.0</v>
       </c>
       <c r="D94" t="s" s="0">
         <v>10</v>
@@ -1700,13 +1778,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C95" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D95" t="s" s="0">
         <v>10</v>
@@ -1714,27 +1792,27 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C96" t="n" s="0">
         <v>-1.0</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C97" t="n" s="0">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="D97" t="s" s="0">
         <v>10</v>
@@ -1742,13 +1820,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C98" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D98" t="s" s="0">
         <v>10</v>
@@ -1756,27 +1834,27 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C99" t="n" s="0">
-        <v>1.0</v>
+        <v>39.0</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C100" t="n" s="0">
-        <v>42.0</v>
+        <v>21.0</v>
       </c>
       <c r="D100" t="s" s="0">
         <v>10</v>
@@ -1784,13 +1862,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C101" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D101" t="s" s="0">
         <v>10</v>
@@ -1798,13 +1876,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C102" t="n" s="0">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="D102" t="s" s="0">
         <v>10</v>
@@ -1812,13 +1890,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B103" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C103" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="D103" t="s" s="0">
         <v>10</v>
@@ -1826,27 +1904,27 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="C104" t="n" s="0">
-        <v>39.0</v>
+        <v>1.0</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C105" t="n" s="0">
-        <v>44.0</v>
+        <v>22.0</v>
       </c>
       <c r="D105" t="s" s="0">
         <v>10</v>
@@ -1854,10 +1932,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C106" t="n" s="0">
         <v>38.0</v>
@@ -1868,27 +1946,27 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C107" t="n" s="0">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B108" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C108" t="n" s="0">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="D108" t="s" s="0">
         <v>10</v>
@@ -1896,13 +1974,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C109" t="n" s="0">
-        <v>38.0</v>
+        <v>22.0</v>
       </c>
       <c r="D109" t="s" s="0">
         <v>10</v>
@@ -1910,13 +1988,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C110" t="n" s="0">
-        <v>1.0</v>
+        <v>38.0</v>
       </c>
       <c r="D110" t="s" s="0">
         <v>10</v>
@@ -1924,13 +2002,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C111" t="n" s="0">
-        <v>42.0</v>
+        <v>23.0</v>
       </c>
       <c r="D111" t="s" s="0">
         <v>10</v>
@@ -1938,13 +2016,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C112" t="n" s="0">
-        <v>38.0</v>
+        <v>22.0</v>
       </c>
       <c r="D112" t="s" s="0">
         <v>10</v>
@@ -1952,13 +2030,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B113" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C113" t="n" s="0">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="D113" t="s" s="0">
         <v>10</v>
@@ -1966,13 +2044,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C114" t="n" s="0">
-        <v>38.0</v>
+        <v>21.0</v>
       </c>
       <c r="D114" t="s" s="0">
         <v>10</v>
@@ -1980,27 +2058,27 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C115" t="n" s="0">
         <v>-1.0</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C116" t="n" s="0">
-        <v>43.0</v>
+        <v>22.0</v>
       </c>
       <c r="D116" t="s" s="0">
         <v>10</v>
@@ -2008,10 +2086,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C117" t="n" s="0">
         <v>38.0</v>
@@ -2022,13 +2100,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C118" t="n" s="0">
-        <v>43.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D118" t="s" s="0">
         <v>10</v>
@@ -2036,13 +2114,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C119" t="n" s="0">
-        <v>39.0</v>
+        <v>21.0</v>
       </c>
       <c r="D119" t="s" s="0">
         <v>10</v>
@@ -2050,13 +2128,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B120" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C120" t="n" s="0">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="D120" t="s" s="0">
         <v>10</v>
@@ -2064,15 +2142,953 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C121" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C122" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C123" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C124" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C125" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C126" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B121" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="C121" t="n" s="0">
-        <v>39.0</v>
-      </c>
-      <c r="D121" t="s" s="0">
+      <c r="B127" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C127" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C128" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C129" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C130" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C131" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C132" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C133" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C134" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C135" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C136" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C137" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C138" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C139" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C140" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C141" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C142" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C143" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C144" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C145" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C146" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C147" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C148" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C149" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C150" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C151" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C152" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C153" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C154" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C155" t="n" s="0">
+        <v>96.0</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C156" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C157" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C158" t="n" s="0">
+        <v>96.0</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C159" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C160" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C161" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C162" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C163" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C164" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C165" t="n" s="0">
+        <v>96.0</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C166" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C167" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C168" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C169" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C170" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C171" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C172" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C173" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C174" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C175" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C176" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C177" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C178" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C179" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C180" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C181" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C182" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C183" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C184" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C185" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C186" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C187" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C188" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="D188" t="s" s="0">
         <v>10</v>
       </c>
     </row>

--- a/records/permanentRecord_Alice Brown.xlsx
+++ b/records/permanentRecord_Alice Brown.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Date and Time</t>
   </si>
@@ -45,31 +45,52 @@
     <t>Level</t>
   </si>
   <si>
-    <t>2026-01-13 01:16:37</t>
-  </si>
-  <si>
-    <t>2026-01-13 01:16:38</t>
+    <t>2026-01-13 01:19:16</t>
+  </si>
+  <si>
+    <t>RespRate</t>
+  </si>
+  <si>
+    <t>11.0 - 11.0</t>
+  </si>
+  <si>
+    <t>AMBER</t>
+  </si>
+  <si>
+    <t>2026-01-13 01:19:17</t>
   </si>
   <si>
     <t>ECG</t>
   </si>
   <si>
-    <t>0.8 - 0.8</t>
-  </si>
-  <si>
-    <t>AMBER</t>
-  </si>
-  <si>
-    <t>2026-01-13 01:16</t>
-  </si>
-  <si>
-    <t>113/84</t>
-  </si>
-  <si>
-    <t>2026-01-13 01:16:42</t>
-  </si>
-  <si>
-    <t>0.7 - 0.7</t>
+    <t>1.0 - 1.0</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>2026-01-13 01:19:19</t>
+  </si>
+  <si>
+    <t>-0.8 - -0.8</t>
+  </si>
+  <si>
+    <t>2026-01-13 01:19:18</t>
+  </si>
+  <si>
+    <t>2026-01-13 01:19:21</t>
+  </si>
+  <si>
+    <t>10.0 - 11.0</t>
+  </si>
+  <si>
+    <t>2026-01-13 01:19:22</t>
+  </si>
+  <si>
+    <t>2026-01-13 01:19:23</t>
+  </si>
+  <si>
+    <t>0.7 - 0.9</t>
   </si>
 </sst>
 </file>
@@ -114,7 +135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -137,23 +158,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>62.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -161,7 +165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -189,33 +193,84 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>13</v>
-      </c>
       <c r="E2" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="0">
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>14</v>
+      <c r="B4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/records/permanentRecord_Alice Brown.xlsx
+++ b/records/permanentRecord_Alice Brown.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Date and Time</t>
   </si>
@@ -45,52 +45,49 @@
     <t>Level</t>
   </si>
   <si>
-    <t>2026-01-13 01:19:16</t>
-  </si>
-  <si>
-    <t>RespRate</t>
-  </si>
-  <si>
-    <t>11.0 - 11.0</t>
+    <t>2026-01-13 21:35:05</t>
+  </si>
+  <si>
+    <t>ECG</t>
+  </si>
+  <si>
+    <t>-0.9 - -0.9</t>
   </si>
   <si>
     <t>AMBER</t>
   </si>
   <si>
-    <t>2026-01-13 01:19:17</t>
-  </si>
-  <si>
-    <t>ECG</t>
-  </si>
-  <si>
-    <t>1.0 - 1.0</t>
+    <t>2026-01-13 21:35:12</t>
+  </si>
+  <si>
+    <t>-0.8 - -0.8</t>
+  </si>
+  <si>
+    <t>2026-01-13 21:35:16</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>35.1 - 35.9</t>
+  </si>
+  <si>
+    <t>2026-01-13 21:35:19</t>
+  </si>
+  <si>
+    <t>0.9 - 0.9</t>
   </si>
   <si>
     <t>RED</t>
   </si>
   <si>
-    <t>2026-01-13 01:19:19</t>
-  </si>
-  <si>
-    <t>-0.8 - -0.8</t>
-  </si>
-  <si>
-    <t>2026-01-13 01:19:18</t>
-  </si>
-  <si>
-    <t>2026-01-13 01:19:21</t>
-  </si>
-  <si>
-    <t>10.0 - 11.0</t>
-  </si>
-  <si>
-    <t>2026-01-13 01:19:22</t>
-  </si>
-  <si>
-    <t>2026-01-13 01:19:23</t>
-  </si>
-  <si>
-    <t>0.7 - 0.9</t>
+    <t>2026-01-13 21:35:20</t>
+  </si>
+  <si>
+    <t>2026-01-13 21:35:21</t>
+  </si>
+  <si>
+    <t>-0.9 - -0.8</t>
   </si>
 </sst>
 </file>
@@ -213,27 +210,27 @@
         <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="E3" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>13</v>
@@ -241,33 +238,33 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>25</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>13</v>

--- a/records/permanentRecord_Alice Brown.xlsx
+++ b/records/permanentRecord_Alice Brown.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Date and Time</t>
   </si>
@@ -45,49 +45,31 @@
     <t>Level</t>
   </si>
   <si>
-    <t>2026-01-13 21:35:05</t>
+    <t>2026-01-14 01:42:56</t>
   </si>
   <si>
     <t>ECG</t>
   </si>
   <si>
-    <t>-0.9 - -0.9</t>
+    <t>0.9 - 0.9</t>
   </si>
   <si>
     <t>AMBER</t>
   </si>
   <si>
-    <t>2026-01-13 21:35:12</t>
-  </si>
-  <si>
-    <t>-0.8 - -0.8</t>
-  </si>
-  <si>
-    <t>2026-01-13 21:35:16</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>35.1 - 35.9</t>
-  </si>
-  <si>
-    <t>2026-01-13 21:35:19</t>
-  </si>
-  <si>
-    <t>0.9 - 0.9</t>
+    <t>2026-01-14 01:42</t>
+  </si>
+  <si>
+    <t>112/85</t>
+  </si>
+  <si>
+    <t>2026-01-14 01:43:03</t>
+  </si>
+  <si>
+    <t>-1.0 - -1.0</t>
   </si>
   <si>
     <t>RED</t>
-  </si>
-  <si>
-    <t>2026-01-13 21:35:20</t>
-  </si>
-  <si>
-    <t>2026-01-13 21:35:21</t>
-  </si>
-  <si>
-    <t>-0.9 - -0.8</t>
   </si>
 </sst>
 </file>
@@ -132,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -155,6 +137,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -162,7 +161,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -204,70 +203,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
